--- a/biology/Botanique/Melicope_denhamii/Melicope_denhamii.xlsx
+++ b/biology/Botanique/Melicope_denhamii/Melicope_denhamii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melicope denhamii est une espèce de plantes à fleurs de la famille des Rutaceae (famille des agrumes). Son nom rend hommage à Henry Mangles Denham, capitaine dans la Royal Navy au XIXe siècle[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melicope denhamii est une espèce de plantes à fleurs de la famille des Rutaceae (famille des agrumes). Son nom rend hommage à Henry Mangles Denham, capitaine dans la Royal Navy au XIXe siècle.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melicope denhamii est un arbre ou arbuste pouvant croître jusqu'à une hauteur de 25 mètres. Ses capsules sphériques mesurent environ 0,3 centimètre de long[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melicope denhamii est un arbre ou arbuste pouvant croître jusqu'à une hauteur de 25 mètres. Ses capsules sphériques mesurent environ 0,3 centimètre de long.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Melicope denhamii est originaire du Sud-Est asiatique, dans une région allant de l'île de Bornéo, aux Philippines et jusqu'à Fidji[4],[3]. À Sabah (nord de Bornéo) on le rencontre naturellement dans les forêts et les marécages depuis le niveau de la mer jusqu'à 950 mètres d'altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melicope denhamii est originaire du Sud-Est asiatique, dans une région allant de l'île de Bornéo, aux Philippines et jusqu'à Fidji,. À Sabah (nord de Bornéo) on le rencontre naturellement dans les forêts et les marécages depuis le niveau de la mer jusqu'à 950 mètres d'altitude.
 			Fruits de Melicope denhamii en culture à Cayenne.
 			Détail de Melicope denhamii en culture à Cayenne.
 </t>
